--- a/Tasks delivered.xlsx
+++ b/Tasks delivered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\The-Cliffborn-Islands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B31214B5-AC0E-40AF-BCFB-A89A1E7501A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EDC6CC-A6D3-4565-B772-C75B6941A0C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" activeTab="1" xr2:uid="{8AEDAC0E-C01A-427C-877A-819CB7AFB0CE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>These are the taks delivered to create The Cliffborn Islands</t>
   </si>
@@ -127,13 +127,28 @@
     <t>52.5h aprox</t>
   </si>
   <si>
-    <t>Created the repositoty and implemented the license</t>
-  </si>
-  <si>
     <t>15 minutes</t>
   </si>
   <si>
     <t>10 minutes</t>
+  </si>
+  <si>
+    <t>Creating the repositoty and implementing the license</t>
+  </si>
+  <si>
+    <t>Creating the map of lvl2 with it's colliders</t>
+  </si>
+  <si>
+    <t>Implementing the player module with all its animations</t>
+  </si>
+  <si>
+    <t>Implementing the movement and the jump of the player</t>
+  </si>
+  <si>
+    <t>2h 30 minutes</t>
+  </si>
+  <si>
+    <t>Delivery date</t>
   </si>
 </sst>
 </file>
@@ -180,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -254,11 +269,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -284,6 +388,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,35 +1115,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF79262-779F-4C4D-881E-8C582EBD464E}">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>4</v>
+      <c r="I3" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -1128,49 +1250,78 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="18">
+        <v>43378</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="18">
+        <v>43386</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="18">
+        <v>43380</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="18">
+        <v>43381</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -1208,53 +1359,6 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="18">
-        <v>43378</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks delivered.xlsx
+++ b/Tasks delivered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\The-Cliffborn-Islands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EDC6CC-A6D3-4565-B772-C75B6941A0C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4FA606-18AA-4475-81E0-A652F6B89447}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" activeTab="1" xr2:uid="{8AEDAC0E-C01A-427C-877A-819CB7AFB0CE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>These are the taks delivered to create The Cliffborn Islands</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Delivery date</t>
+  </si>
+  <si>
+    <t>Created the sprites of godmode and implemented it</t>
+  </si>
+  <si>
+    <t>45 minutes</t>
+  </si>
+  <si>
+    <t>1h 15 minutes</t>
   </si>
 </sst>
 </file>
@@ -362,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -395,6 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,7 +1128,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,6 +1333,23 @@
         <v>43381</v>
       </c>
     </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="18">
+        <v>43385</v>
+      </c>
+    </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>

--- a/Tasks delivered.xlsx
+++ b/Tasks delivered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\The-Cliffborn-Islands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4FA606-18AA-4475-81E0-A652F6B89447}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07289528-8754-44B1-8792-E7507FECFE8F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" activeTab="1" xr2:uid="{8AEDAC0E-C01A-427C-877A-819CB7AFB0CE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>These are the taks delivered to create The Cliffborn Islands</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>1h 15 minutes</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>Implemented the collisions of the player with the map</t>
   </si>
 </sst>
 </file>
@@ -167,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +194,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -371,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -405,6 +417,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1128,7 +1141,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,19 +1365,30 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="18">
+        <v>43387</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
@@ -1388,5 +1412,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tasks delivered.xlsx
+++ b/Tasks delivered.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\The-Cliffborn-Islands\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B9C2F5-1597-4F01-9924-578C7A5E6996}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,187 +26,209 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">These are the taks delivered to create The Cliffborn Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Faura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Player 1 &amp; Player 2 controlling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented few enemies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respawn invulnerability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added wall colliders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed laser type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dani Lorenzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented most of the basic enemies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20/05/0218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementing the whole Boss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementing issues. templates and milestones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5h aprox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating the map of lvl1 with it’s colliders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created Collisions Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementing Load / Save functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2h 30 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementing camera movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented parallax effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created function to read colliders frm xml and draw them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented win/death conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created funtion to load the animations from xml file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating the repositoty and implementing the license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating the map of lvl2 with it's colliders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementing the player module with all its animations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementing the movement and the jump of the player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2h 30 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created the sprites of godmode and implemented it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1h 15 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented the collisions of the player with the map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10h</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="64">
+  <si>
+    <t>These are the taks delivered to create The Cliffborn Islands</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Estimated time</t>
+  </si>
+  <si>
+    <t>Real time</t>
+  </si>
+  <si>
+    <t>Date of delivery</t>
+  </si>
+  <si>
+    <t>Oscar Faura</t>
+  </si>
+  <si>
+    <t>Player 1 &amp; Player 2 controlling</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>Fixed bugs</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>implemented few enemies</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Respawn invulnerability</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Added wall colliders</t>
+  </si>
+  <si>
+    <t>Fixed laser type</t>
+  </si>
+  <si>
+    <t>Dani Lorenzo</t>
+  </si>
+  <si>
+    <t>Implemented most of the basic enemies</t>
+  </si>
+  <si>
+    <t>25 h</t>
+  </si>
+  <si>
+    <t>40 h</t>
+  </si>
+  <si>
+    <t>20/05/0218</t>
+  </si>
+  <si>
+    <t>Implementing the whole Boss</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>Implementing issues. templates and milestones</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>32h</t>
+  </si>
+  <si>
+    <t>52.5h aprox</t>
+  </si>
+  <si>
+    <t>Delivery date</t>
+  </si>
+  <si>
+    <t>Creating the map of lvl1 with it’s colliders</t>
+  </si>
+  <si>
+    <t>Created Collisions Module</t>
+  </si>
+  <si>
+    <t>Implementing Load / Save functions</t>
+  </si>
+  <si>
+    <t>2h 30 min</t>
+  </si>
+  <si>
+    <t>Implementing camera movement</t>
+  </si>
+  <si>
+    <t>Implemented parallax effect</t>
+  </si>
+  <si>
+    <t>Created function to read colliders frm xml and draw them</t>
+  </si>
+  <si>
+    <t>Implemented win/death conditions</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>Created funtion to load the animations from xml file</t>
+  </si>
+  <si>
+    <t>Creating the repositoty and implementing the license</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t>Creating the map of lvl2 with it's colliders</t>
+  </si>
+  <si>
+    <t>Implementing the player module with all its animations</t>
+  </si>
+  <si>
+    <t>Implementing the movement and the jump of the player</t>
+  </si>
+  <si>
+    <t>2h 30 minutes</t>
+  </si>
+  <si>
+    <t>45 minutes</t>
+  </si>
+  <si>
+    <t>1h 15 minutes</t>
+  </si>
+  <si>
+    <t>Implemented the collisions of the player with the map</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>Capped FPS and normalizd movement using dt</t>
+  </si>
+  <si>
+    <t>Implemented the hook</t>
+  </si>
+  <si>
+    <t>Created player death and hook animations</t>
+  </si>
+  <si>
+    <t>Implemented the attack of the player</t>
+  </si>
+  <si>
+    <t>Created the sprites of godmode and implemented them</t>
+  </si>
+  <si>
+    <t>Assignement 2 ~ Tasks</t>
+  </si>
+  <si>
+    <t>Assignement 1 ~ Tasks</t>
+  </si>
+  <si>
+    <t>Created the UML</t>
+  </si>
+  <si>
+    <t>7h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,40 +239,29 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,254 +274,528 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="12">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.67"/>
+    <col min="1" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -524,7 +814,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -535,7 +825,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -546,7 +836,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -562,12 +852,12 @@
       <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="6">
         <v>43256</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="7" t="s">
         <v>9</v>
@@ -581,12 +871,12 @@
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>43256</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
         <v>12</v>
@@ -600,12 +890,12 @@
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>43276</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="7" t="s">
         <v>15</v>
@@ -619,12 +909,12 @@
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>43230</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="7" t="s">
         <v>17</v>
@@ -638,12 +928,12 @@
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="8">
         <v>43226</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="7" t="s">
         <v>18</v>
@@ -657,12 +947,12 @@
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="6">
         <v>43225</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -673,7 +963,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -684,7 +974,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -695,7 +985,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -705,7 +995,7 @@
       <c r="H15" s="1"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="10"/>
@@ -716,7 +1006,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -727,7 +1017,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -738,7 +1028,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -749,7 +1039,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -760,7 +1050,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -771,7 +1061,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -782,7 +1072,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>19</v>
       </c>
@@ -803,7 +1093,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="7" t="s">
         <v>24</v>
@@ -817,12 +1107,12 @@
       <c r="H24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="6">
         <v>43256</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
         <v>27</v>
@@ -836,12 +1126,12 @@
       <c r="H25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="6">
         <v>43224</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -858,7 +1148,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -869,7 +1159,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -880,7 +1170,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -892,66 +1182,58 @@
       <c r="J29" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q27" activeCellId="0" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.67"/>
+    <col min="1" max="1" width="11.42578125"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2"/>
-      <c r="C3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -960,7 +1242,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -969,7 +1251,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -985,11 +1267,11 @@
       <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="22" t="n">
+      <c r="I6" s="18">
         <v>43380</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="7" t="s">
         <v>35</v>
@@ -1003,11 +1285,11 @@
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="22" t="n">
+      <c r="I7" s="18">
         <v>43380</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="7" t="s">
         <v>36</v>
@@ -1021,11 +1303,11 @@
       <c r="H8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="22" t="n">
+      <c r="I8" s="18">
         <v>43387</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="7" t="s">
         <v>38</v>
@@ -1039,11 +1321,11 @@
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="22" t="n">
+      <c r="I9" s="18">
         <v>43383</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="7" t="s">
         <v>39</v>
@@ -1057,11 +1339,11 @@
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="22" t="n">
+      <c r="I10" s="18">
         <v>43383</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="7" t="s">
         <v>40</v>
@@ -1075,49 +1357,47 @@
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="22" t="n">
+      <c r="I11" s="18">
         <v>43382</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="22" t="n">
+      <c r="I12" s="18">
         <v>43383</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="22" t="n">
+      <c r="I13" s="18">
         <v>43384</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>19</v>
       </c>
@@ -1133,11 +1413,11 @@
       <c r="H16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="23" t="n">
+      <c r="I16" s="19">
         <v>43378</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="7" t="s">
         <v>47</v>
@@ -1151,11 +1431,11 @@
       <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="23" t="n">
+      <c r="I17" s="19">
         <v>43386</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="9" t="s">
         <v>48</v>
@@ -1169,64 +1449,64 @@
       <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="23" t="n">
+      <c r="I18" s="19">
         <v>43380</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="23" t="n">
+      <c r="I19" s="19">
         <v>43381</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26" t="s">
+      <c r="H20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="23" t="n">
+      <c r="I20" s="19">
         <v>43385</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="I21" s="19">
         <v>43387</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1235,13 +1515,298 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="18">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="18">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="18">
+        <v>43387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="18">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="18">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="18">
+        <v>43382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="18">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="18">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="19">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I37" s="19">
+        <v>43415</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="19">
+        <v>43386</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="19">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="19">
+        <v>43391</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>